--- a/kani day1.xlsx
+++ b/kani day1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasod\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\testing\softwaretesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8154D9-642E-4DF9-9F04-06EDA5849C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDBC5B1-367B-4EA1-A294-E32FA1779BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -643,19 +632,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AB49"/>
+  <dimension ref="B3:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -669,7 +658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -683,7 +672,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -694,7 +683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -705,7 +694,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -724,11 +713,11 @@
       <c r="Y10" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -747,11 +736,11 @@
       <c r="Y12" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>24</v>
       </c>
@@ -759,22 +748,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -793,11 +782,11 @@
       <c r="Y21" t="s">
         <v>22</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AA21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>24</v>
       </c>
@@ -805,22 +794,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -839,11 +828,11 @@
       <c r="Y29" t="s">
         <v>22</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AA29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
         <v>24</v>
       </c>
@@ -851,22 +840,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>36</v>
       </c>
@@ -885,11 +874,11 @@
       <c r="Y37" t="s">
         <v>22</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AA37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>40</v>
       </c>
@@ -900,22 +889,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>43</v>
       </c>
@@ -934,11 +923,11 @@
       <c r="Y45" t="s">
         <v>22</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>46</v>
       </c>
@@ -949,17 +938,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K49" t="s">
         <v>28</v>
       </c>
@@ -971,18 +960,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9E9997-8233-4399-AC20-5CC8525DC51F}">
-  <dimension ref="B3:AB50"/>
+  <dimension ref="B3:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="N21" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -996,7 +985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +999,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1021,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1051,11 +1040,11 @@
       <c r="Y10" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1074,11 +1063,11 @@
       <c r="Y12" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>24</v>
       </c>
@@ -1086,22 +1075,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1120,11 +1109,11 @@
       <c r="Y20" t="s">
         <v>22</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AA20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>24</v>
       </c>
@@ -1132,32 +1121,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -1165,7 +1154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>54</v>
       </c>
@@ -1181,11 +1170,11 @@
       <c r="Y31" t="s">
         <v>22</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AA31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>56</v>
       </c>
@@ -1199,37 +1188,37 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>36</v>
       </c>
@@ -1248,11 +1237,11 @@
       <c r="Y42" t="s">
         <v>22</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>61</v>
       </c>
@@ -1266,37 +1255,37 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K50" t="s">
         <v>63</v>
       </c>
@@ -1308,18 +1297,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248C0A81-91F5-4A48-8ADE-2DE02DA0C393}">
-  <dimension ref="B2:AB37"/>
+  <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="O15" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1336,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1358,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1388,11 +1377,11 @@
       <c r="Y9" t="s">
         <v>15</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1411,11 +1400,11 @@
       <c r="Y11" t="s">
         <v>22</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
         <v>24</v>
       </c>
@@ -1423,22 +1412,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -1457,11 +1446,11 @@
       <c r="Y19" t="s">
         <v>22</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AA19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K20" t="s">
         <v>24</v>
       </c>
@@ -1469,32 +1458,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>68</v>
       </c>
@@ -1518,11 +1507,11 @@
       <c r="Y30" t="s">
         <v>22</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AA30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>70</v>
       </c>
@@ -1536,32 +1525,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K37" t="s">
         <v>72</v>
       </c>
@@ -1573,18 +1562,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BBDD28-7F34-431E-B319-7B3678CBBE2F}">
-  <dimension ref="B3:AB38"/>
+  <dimension ref="B3:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1601,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1623,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1653,11 +1642,11 @@
       <c r="Y10" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1676,11 +1665,11 @@
       <c r="Y12" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>24</v>
       </c>
@@ -1688,22 +1677,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1722,11 +1711,11 @@
       <c r="Y20" t="s">
         <v>22</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AA20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>24</v>
       </c>
@@ -1734,32 +1723,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -1767,7 +1756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>68</v>
       </c>
@@ -1783,11 +1772,11 @@
       <c r="Y31" t="s">
         <v>22</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AA31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>70</v>
       </c>
@@ -1801,32 +1790,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K38" t="s">
         <v>77</v>
       </c>
@@ -1838,18 +1827,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2335D4-7806-42D9-AD83-FFA4390273F4}">
-  <dimension ref="B3:AB27"/>
+  <dimension ref="B3:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1852,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1877,7 +1866,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +1877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +1888,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1918,11 +1907,11 @@
       <c r="Y10" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1941,11 +1930,11 @@
       <c r="Y12" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>24</v>
       </c>
@@ -1953,22 +1942,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -1987,11 +1976,11 @@
       <c r="Y21" t="s">
         <v>22</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AA21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>80</v>
       </c>
@@ -2005,7 +1994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>82</v>
       </c>
@@ -2013,22 +2002,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>83</v>
       </c>
@@ -2040,18 +2029,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1549CC-D426-474B-9A2A-813347E6AD30}">
-  <dimension ref="B3:AB21"/>
+  <dimension ref="B3:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2079,7 +2068,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2090,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -2120,11 +2109,11 @@
       <c r="Y10" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -2143,11 +2132,11 @@
       <c r="Y12" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
         <v>24</v>
       </c>
@@ -2155,22 +2144,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>29</v>
       </c>
